--- a/data/pca/factorExposure/factorExposure_2015-04-01.xlsx
+++ b/data/pca/factorExposure/factorExposure_2015-04-01.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="107" uniqueCount="107">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="111" uniqueCount="111">
   <si>
     <t>factor1</t>
   </si>
@@ -26,6 +26,18 @@
   </si>
   <si>
     <t>factor4</t>
+  </si>
+  <si>
+    <t>factor5</t>
+  </si>
+  <si>
+    <t>factor6</t>
+  </si>
+  <si>
+    <t>factor7</t>
+  </si>
+  <si>
+    <t>factor8</t>
   </si>
   <si>
     <t>Constellation software inc/can</t>
@@ -692,13 +704,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:E104"/>
+  <dimension ref="A1:I104"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:5">
+    <row r="1" spans="1:9">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -711,27 +723,51 @@
       <c r="E1" s="1" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="2" spans="1:5">
+      <c r="F1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9">
       <c r="A2" s="1" t="s">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="B2">
-        <v>0.02047273499357361</v>
+        <v>0.01240297084010156</v>
       </c>
       <c r="C2">
-        <v>0.02686913957226353</v>
+        <v>0.05231650806764208</v>
       </c>
       <c r="D2">
-        <v>0.139954833743786</v>
+        <v>-0.1225510207576185</v>
       </c>
       <c r="E2">
-        <v>0.04752393364348428</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5">
+        <v>-0.03192952825216649</v>
+      </c>
+      <c r="F2">
+        <v>-0.03914081969469684</v>
+      </c>
+      <c r="G2">
+        <v>-0.06968365896597428</v>
+      </c>
+      <c r="H2">
+        <v>0.1263331546981823</v>
+      </c>
+      <c r="I2">
+        <v>-0.05127605639336561</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9">
       <c r="A3" s="1" t="s">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="B3">
         <v>0</v>
@@ -745,27 +781,51 @@
       <c r="E3">
         <v>0</v>
       </c>
-    </row>
-    <row r="4" spans="1:5">
+      <c r="F3">
+        <v>0</v>
+      </c>
+      <c r="G3">
+        <v>0</v>
+      </c>
+      <c r="H3">
+        <v>0</v>
+      </c>
+      <c r="I3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9">
       <c r="A4" s="1" t="s">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="B4">
-        <v>0.04502735693463258</v>
+        <v>0.02215949728159789</v>
       </c>
       <c r="C4">
-        <v>0.07344568527625957</v>
+        <v>0.109865548123026</v>
       </c>
       <c r="D4">
-        <v>0.09349708640079785</v>
+        <v>-0.1149665601620658</v>
       </c>
       <c r="E4">
-        <v>0.1075862085063452</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5">
+        <v>-0.02186627726167494</v>
+      </c>
+      <c r="F4">
+        <v>-0.1008271142774947</v>
+      </c>
+      <c r="G4">
+        <v>0.02040432089495539</v>
+      </c>
+      <c r="H4">
+        <v>0.03831612278995168</v>
+      </c>
+      <c r="I4">
+        <v>0.09365680608269475</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9">
       <c r="A5" s="1" t="s">
-        <v>7</v>
+        <v>11</v>
       </c>
       <c r="B5">
         <v>0</v>
@@ -779,197 +839,341 @@
       <c r="E5">
         <v>0</v>
       </c>
-    </row>
-    <row r="6" spans="1:5">
+      <c r="F5">
+        <v>0</v>
+      </c>
+      <c r="G5">
+        <v>0</v>
+      </c>
+      <c r="H5">
+        <v>0</v>
+      </c>
+      <c r="I5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9">
       <c r="A6" s="1" t="s">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="B6">
-        <v>0.02874478520322802</v>
+        <v>0.0336391709234013</v>
       </c>
       <c r="C6">
-        <v>0.01720796036133503</v>
+        <v>0.04065374071923827</v>
       </c>
       <c r="D6">
-        <v>0.116062638674611</v>
+        <v>-0.1070494602027011</v>
       </c>
       <c r="E6">
-        <v>0.07036511921944016</v>
-      </c>
-    </row>
-    <row r="7" spans="1:5">
+        <v>-0.07111951895355087</v>
+      </c>
+      <c r="F6">
+        <v>-0.04767414073223316</v>
+      </c>
+      <c r="G6">
+        <v>0.03428521339590196</v>
+      </c>
+      <c r="H6">
+        <v>0.0226252150844293</v>
+      </c>
+      <c r="I6">
+        <v>0.003679264312151305</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9">
       <c r="A7" s="1" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="B7">
-        <v>0.002071458249535682</v>
+        <v>0.007519491819512273</v>
       </c>
       <c r="C7">
-        <v>0.02464249903321653</v>
+        <v>0.03990939353445383</v>
       </c>
       <c r="D7">
-        <v>0.1066208182781365</v>
+        <v>-0.08927541390207937</v>
       </c>
       <c r="E7">
-        <v>0.03446137004598042</v>
-      </c>
-    </row>
-    <row r="8" spans="1:5">
+        <v>-0.05532866537293131</v>
+      </c>
+      <c r="F7">
+        <v>-0.01246235326265638</v>
+      </c>
+      <c r="G7">
+        <v>0.06466636264377124</v>
+      </c>
+      <c r="H7">
+        <v>0.0503285806253708</v>
+      </c>
+      <c r="I7">
+        <v>0.05969215739020102</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9">
       <c r="A8" s="1" t="s">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="B8">
-        <v>0.002835316868502199</v>
+        <v>-0.005036101062094398</v>
       </c>
       <c r="C8">
-        <v>0.0278694680710513</v>
+        <v>0.03876548095674292</v>
       </c>
       <c r="D8">
-        <v>0.0818744184232534</v>
+        <v>-0.0646811536552872</v>
       </c>
       <c r="E8">
-        <v>0.04927939843483991</v>
-      </c>
-    </row>
-    <row r="9" spans="1:5">
+        <v>-0.04034771758693841</v>
+      </c>
+      <c r="F8">
+        <v>-0.05028767357901567</v>
+      </c>
+      <c r="G8">
+        <v>-0.04445299276861084</v>
+      </c>
+      <c r="H8">
+        <v>0.03532623257612728</v>
+      </c>
+      <c r="I8">
+        <v>0.03487561099119103</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9">
       <c r="A9" s="1" t="s">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="B9">
-        <v>0.03461264863775539</v>
+        <v>0.01552155378112172</v>
       </c>
       <c r="C9">
-        <v>0.06540187379237133</v>
+        <v>0.09051037312127834</v>
       </c>
       <c r="D9">
-        <v>0.09682655899047414</v>
+        <v>-0.1005580922676459</v>
       </c>
       <c r="E9">
-        <v>0.08870377013471285</v>
-      </c>
-    </row>
-    <row r="10" spans="1:5">
+        <v>-0.01772578921655699</v>
+      </c>
+      <c r="F9">
+        <v>-0.06783739627205422</v>
+      </c>
+      <c r="G9">
+        <v>0.0407337533240003</v>
+      </c>
+      <c r="H9">
+        <v>0.04613293531326923</v>
+      </c>
+      <c r="I9">
+        <v>0.0545971983858898</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9">
       <c r="A10" s="1" t="s">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="B10">
-        <v>0.1851130047601553</v>
+        <v>0.2426092158855145</v>
       </c>
       <c r="C10">
-        <v>-0.1615425257438197</v>
+        <v>-0.09260365597916008</v>
       </c>
       <c r="D10">
-        <v>-0.01932364739652469</v>
+        <v>0.01014624915682046</v>
       </c>
       <c r="E10">
-        <v>0.04137706585926926</v>
-      </c>
-    </row>
-    <row r="11" spans="1:5">
+        <v>0.01524715531199472</v>
+      </c>
+      <c r="F10">
+        <v>-0.03932319865777525</v>
+      </c>
+      <c r="G10">
+        <v>-0.0130837743545538</v>
+      </c>
+      <c r="H10">
+        <v>-0.01590457917362092</v>
+      </c>
+      <c r="I10">
+        <v>-0.01305615901530808</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9">
       <c r="A11" s="1" t="s">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="B11">
-        <v>0.01671931702687704</v>
+        <v>0.01200608888448393</v>
       </c>
       <c r="C11">
-        <v>0.04190079331329349</v>
+        <v>0.05858997758644756</v>
       </c>
       <c r="D11">
-        <v>0.04218726429586454</v>
+        <v>-0.03726657233281912</v>
       </c>
       <c r="E11">
-        <v>-0.008708735522879003</v>
-      </c>
-    </row>
-    <row r="12" spans="1:5">
+        <v>-0.02544490938115434</v>
+      </c>
+      <c r="F11">
+        <v>0.01233724351661809</v>
+      </c>
+      <c r="G11">
+        <v>0.03492274719802796</v>
+      </c>
+      <c r="H11">
+        <v>0.02347950461445057</v>
+      </c>
+      <c r="I11">
+        <v>0.04055790105779688</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9">
       <c r="A12" s="1" t="s">
-        <v>14</v>
+        <v>18</v>
       </c>
       <c r="B12">
-        <v>0.0154774519579867</v>
+        <v>0.01215943031108133</v>
       </c>
       <c r="C12">
-        <v>0.04295669788292887</v>
+        <v>0.0517741488768463</v>
       </c>
       <c r="D12">
-        <v>0.05508209476799732</v>
+        <v>-0.04473576612000107</v>
       </c>
       <c r="E12">
-        <v>0.004698013561103462</v>
-      </c>
-    </row>
-    <row r="13" spans="1:5">
+        <v>-0.02099161755011707</v>
+      </c>
+      <c r="F12">
+        <v>0.01491117794214054</v>
+      </c>
+      <c r="G12">
+        <v>0.05886843906357724</v>
+      </c>
+      <c r="H12">
+        <v>0.03853681576163077</v>
+      </c>
+      <c r="I12">
+        <v>0.01496518608778109</v>
+      </c>
+    </row>
+    <row r="13" spans="1:9">
       <c r="A13" s="1" t="s">
-        <v>15</v>
+        <v>19</v>
       </c>
       <c r="B13">
-        <v>0.007646849032184355</v>
+        <v>0.002383015056046088</v>
       </c>
       <c r="C13">
-        <v>0.02686792585245776</v>
+        <v>0.05753215296877833</v>
       </c>
       <c r="D13">
-        <v>0.1257368342647125</v>
+        <v>-0.1528215075677139</v>
       </c>
       <c r="E13">
-        <v>0.06880195670439107</v>
-      </c>
-    </row>
-    <row r="14" spans="1:5">
+        <v>-0.04140886282040585</v>
+      </c>
+      <c r="F13">
+        <v>-0.03955673240905204</v>
+      </c>
+      <c r="G13">
+        <v>0.02769163430899217</v>
+      </c>
+      <c r="H13">
+        <v>0.1061613305244832</v>
+      </c>
+      <c r="I13">
+        <v>-0.03878003886485642</v>
+      </c>
+    </row>
+    <row r="14" spans="1:9">
       <c r="A14" s="1" t="s">
-        <v>16</v>
+        <v>20</v>
       </c>
       <c r="B14">
-        <v>-0.003224295797490746</v>
+        <v>0.004896051304057243</v>
       </c>
       <c r="C14">
-        <v>0.01836442563446817</v>
+        <v>0.03492823042415732</v>
       </c>
       <c r="D14">
-        <v>0.07875532653993311</v>
+        <v>-0.08791706152347609</v>
       </c>
       <c r="E14">
-        <v>0.02904568093026696</v>
-      </c>
-    </row>
-    <row r="15" spans="1:5">
+        <v>-0.06269374405061509</v>
+      </c>
+      <c r="F14">
+        <v>-0.02942588567017686</v>
+      </c>
+      <c r="G14">
+        <v>0.07007069125406519</v>
+      </c>
+      <c r="H14">
+        <v>0.1239651543773862</v>
+      </c>
+      <c r="I14">
+        <v>0.03380328745481198</v>
+      </c>
+    </row>
+    <row r="15" spans="1:9">
       <c r="A15" s="1" t="s">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="B15">
-        <v>-0.003340842758643334</v>
+        <v>-0.003807061664499526</v>
       </c>
       <c r="C15">
-        <v>0.01280269467739427</v>
+        <v>0.02936405105695057</v>
       </c>
       <c r="D15">
-        <v>0.03856800331923647</v>
+        <v>-0.05611366980789109</v>
       </c>
       <c r="E15">
-        <v>0.005967684007877717</v>
-      </c>
-    </row>
-    <row r="16" spans="1:5">
+        <v>-0.0238374860336192</v>
+      </c>
+      <c r="F15">
+        <v>-0.009217278745420859</v>
+      </c>
+      <c r="G15">
+        <v>0.01284953332371838</v>
+      </c>
+      <c r="H15">
+        <v>0.05081459728006863</v>
+      </c>
+      <c r="I15">
+        <v>0.03402201126541359</v>
+      </c>
+    </row>
+    <row r="16" spans="1:9">
       <c r="A16" s="1" t="s">
-        <v>18</v>
+        <v>22</v>
       </c>
       <c r="B16">
-        <v>0.01598781230989483</v>
+        <v>0.01095090413325181</v>
       </c>
       <c r="C16">
-        <v>0.03844035111444569</v>
+        <v>0.05133946537163589</v>
       </c>
       <c r="D16">
-        <v>0.04762249227869132</v>
+        <v>-0.04062289218416588</v>
       </c>
       <c r="E16">
-        <v>0.003778296335861991</v>
-      </c>
-    </row>
-    <row r="17" spans="1:5">
+        <v>-0.02690351219640148</v>
+      </c>
+      <c r="F16">
+        <v>0.006683909101010342</v>
+      </c>
+      <c r="G16">
+        <v>0.04410917337307947</v>
+      </c>
+      <c r="H16">
+        <v>0.01930994770040998</v>
+      </c>
+      <c r="I16">
+        <v>0.02685086881484145</v>
+      </c>
+    </row>
+    <row r="17" spans="1:9">
       <c r="A17" s="1" t="s">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="B17">
         <v>0</v>
@@ -983,10 +1187,22 @@
       <c r="E17">
         <v>0</v>
       </c>
-    </row>
-    <row r="18" spans="1:5">
+      <c r="F17">
+        <v>0</v>
+      </c>
+      <c r="G17">
+        <v>0</v>
+      </c>
+      <c r="H17">
+        <v>0</v>
+      </c>
+      <c r="I17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:9">
       <c r="A18" s="1" t="s">
-        <v>20</v>
+        <v>24</v>
       </c>
       <c r="B18">
         <v>0</v>
@@ -1000,146 +1216,254 @@
       <c r="E18">
         <v>0</v>
       </c>
-    </row>
-    <row r="19" spans="1:5">
+      <c r="F18">
+        <v>0</v>
+      </c>
+      <c r="G18">
+        <v>0</v>
+      </c>
+      <c r="H18">
+        <v>0</v>
+      </c>
+      <c r="I18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:9">
       <c r="A19" s="1" t="s">
-        <v>21</v>
+        <v>25</v>
       </c>
       <c r="B19">
-        <v>2.641195034339287e-05</v>
+        <v>-0.002201165618456168</v>
       </c>
       <c r="C19">
-        <v>0.021415342920907</v>
+        <v>0.01723863560818754</v>
       </c>
       <c r="D19">
-        <v>0.06960507695655123</v>
+        <v>-0.04740890275483917</v>
       </c>
       <c r="E19">
-        <v>0.04303996886630277</v>
-      </c>
-    </row>
-    <row r="20" spans="1:5">
+        <v>0.006278263856276314</v>
+      </c>
+      <c r="F19">
+        <v>-0.01363903953203262</v>
+      </c>
+      <c r="G19">
+        <v>0.008202468740116443</v>
+      </c>
+      <c r="H19">
+        <v>0.04898927370211294</v>
+      </c>
+      <c r="I19">
+        <v>0.001680954308234042</v>
+      </c>
+    </row>
+    <row r="20" spans="1:9">
       <c r="A20" s="1" t="s">
-        <v>22</v>
+        <v>26</v>
       </c>
       <c r="B20">
-        <v>0.002539938908676894</v>
+        <v>0.005020702569275214</v>
       </c>
       <c r="C20">
-        <v>0.02619272833751917</v>
+        <v>0.04286958564303225</v>
       </c>
       <c r="D20">
-        <v>0.07039541235757943</v>
+        <v>-0.08014971198298665</v>
       </c>
       <c r="E20">
-        <v>0.05091131398859173</v>
-      </c>
-    </row>
-    <row r="21" spans="1:5">
+        <v>-0.02941526294978328</v>
+      </c>
+      <c r="F20">
+        <v>-0.02854253034478849</v>
+      </c>
+      <c r="G20">
+        <v>0.04549177117998518</v>
+      </c>
+      <c r="H20">
+        <v>0.02927455343128294</v>
+      </c>
+      <c r="I20">
+        <v>0.054491259152433</v>
+      </c>
+    </row>
+    <row r="21" spans="1:9">
       <c r="A21" s="1" t="s">
-        <v>23</v>
+        <v>27</v>
       </c>
       <c r="B21">
-        <v>0.01034020699187745</v>
+        <v>0.005468376418722778</v>
       </c>
       <c r="C21">
-        <v>0.03189043560114182</v>
+        <v>0.05042394398597053</v>
       </c>
       <c r="D21">
-        <v>0.1204497258420057</v>
+        <v>-0.1144958205165401</v>
       </c>
       <c r="E21">
-        <v>0.1052260417577782</v>
-      </c>
-    </row>
-    <row r="22" spans="1:5">
+        <v>-0.03543483197887072</v>
+      </c>
+      <c r="F21">
+        <v>-0.09175465927803726</v>
+      </c>
+      <c r="G21">
+        <v>0.06444245878304998</v>
+      </c>
+      <c r="H21">
+        <v>0.1946166949891283</v>
+      </c>
+      <c r="I21">
+        <v>-0.006389468995100644</v>
+      </c>
+    </row>
+    <row r="22" spans="1:9">
       <c r="A22" s="1" t="s">
-        <v>24</v>
+        <v>28</v>
       </c>
       <c r="B22">
-        <v>0.003544914527881867</v>
+        <v>-0.009343091222446755</v>
       </c>
       <c r="C22">
-        <v>0.07400223792020787</v>
+        <v>0.09722324815897518</v>
       </c>
       <c r="D22">
-        <v>0.309900363440711</v>
+        <v>-0.2695044200944121</v>
       </c>
       <c r="E22">
-        <v>0.09256950434532762</v>
-      </c>
-    </row>
-    <row r="23" spans="1:5">
+        <v>-0.09116856461470785</v>
+      </c>
+      <c r="F22">
+        <v>-0.04618824984764994</v>
+      </c>
+      <c r="G22">
+        <v>-0.5195423310376148</v>
+      </c>
+      <c r="H22">
+        <v>-0.1784680384723171</v>
+      </c>
+      <c r="I22">
+        <v>-0.06289643243492125</v>
+      </c>
+    </row>
+    <row r="23" spans="1:9">
       <c r="A23" s="1" t="s">
-        <v>25</v>
+        <v>29</v>
       </c>
       <c r="B23">
-        <v>0.003857468569648295</v>
+        <v>-0.006232213664628014</v>
       </c>
       <c r="C23">
-        <v>0.07426833876167499</v>
+        <v>0.09882449966161599</v>
       </c>
       <c r="D23">
-        <v>0.3084474727386026</v>
+        <v>-0.2718131853714958</v>
       </c>
       <c r="E23">
-        <v>0.09264355412593067</v>
-      </c>
-    </row>
-    <row r="24" spans="1:5">
+        <v>-0.08591476025772792</v>
+      </c>
+      <c r="F23">
+        <v>-0.04887153362117411</v>
+      </c>
+      <c r="G23">
+        <v>-0.5031813821512577</v>
+      </c>
+      <c r="H23">
+        <v>-0.1691722920515642</v>
+      </c>
+      <c r="I23">
+        <v>-0.06144497906059296</v>
+      </c>
+    </row>
+    <row r="24" spans="1:9">
       <c r="A24" s="1" t="s">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="B24">
-        <v>0.02249204069977797</v>
+        <v>0.01221283578556992</v>
       </c>
       <c r="C24">
-        <v>0.06004964109755897</v>
+        <v>0.06934049375365853</v>
       </c>
       <c r="D24">
-        <v>0.05716956593822338</v>
+        <v>-0.04196285660288361</v>
       </c>
       <c r="E24">
-        <v>0.004684970039903913</v>
-      </c>
-    </row>
-    <row r="25" spans="1:5">
+        <v>-0.03198144827120725</v>
+      </c>
+      <c r="F24">
+        <v>0.00554884547589517</v>
+      </c>
+      <c r="G24">
+        <v>0.04584725704665322</v>
+      </c>
+      <c r="H24">
+        <v>0.04882335432713523</v>
+      </c>
+      <c r="I24">
+        <v>0.04270887743116075</v>
+      </c>
+    </row>
+    <row r="25" spans="1:9">
       <c r="A25" s="1" t="s">
-        <v>27</v>
+        <v>31</v>
       </c>
       <c r="B25">
-        <v>0.02252150875206475</v>
+        <v>0.01627399287073643</v>
       </c>
       <c r="C25">
-        <v>0.05178782127342601</v>
+        <v>0.06399938379754044</v>
       </c>
       <c r="D25">
-        <v>0.05510627051129599</v>
+        <v>-0.04666441398106268</v>
       </c>
       <c r="E25">
-        <v>0.01224666132224071</v>
-      </c>
-    </row>
-    <row r="26" spans="1:5">
+        <v>-0.01997325984858279</v>
+      </c>
+      <c r="F25">
+        <v>0.005272690572180374</v>
+      </c>
+      <c r="G25">
+        <v>0.03686946397930582</v>
+      </c>
+      <c r="H25">
+        <v>0.01900019210935209</v>
+      </c>
+      <c r="I25">
+        <v>0.02495438248136688</v>
+      </c>
+    </row>
+    <row r="26" spans="1:9">
       <c r="A26" s="1" t="s">
-        <v>28</v>
+        <v>32</v>
       </c>
       <c r="B26">
-        <v>0.01005238927914343</v>
+        <v>0.01862832870647988</v>
       </c>
       <c r="C26">
-        <v>0.01618047035968883</v>
+        <v>0.02964621012133219</v>
       </c>
       <c r="D26">
-        <v>0.06238247107392122</v>
+        <v>-0.05369564662539359</v>
       </c>
       <c r="E26">
-        <v>0.03751750098228437</v>
-      </c>
-    </row>
-    <row r="27" spans="1:5">
+        <v>-0.04206768231883729</v>
+      </c>
+      <c r="F26">
+        <v>-0.04535283334560508</v>
+      </c>
+      <c r="G26">
+        <v>0.04477806910939609</v>
+      </c>
+      <c r="H26">
+        <v>0.0891012947395463</v>
+      </c>
+      <c r="I26">
+        <v>0.03803777445895912</v>
+      </c>
+    </row>
+    <row r="27" spans="1:9">
       <c r="A27" s="1" t="s">
-        <v>29</v>
+        <v>33</v>
       </c>
       <c r="B27">
         <v>0</v>
@@ -1153,163 +1477,283 @@
       <c r="E27">
         <v>0</v>
       </c>
-    </row>
-    <row r="28" spans="1:5">
+      <c r="F27">
+        <v>0</v>
+      </c>
+      <c r="G27">
+        <v>0</v>
+      </c>
+      <c r="H27">
+        <v>0</v>
+      </c>
+      <c r="I27">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="1:9">
       <c r="A28" s="1" t="s">
-        <v>30</v>
+        <v>34</v>
       </c>
       <c r="B28">
-        <v>0.269037961284116</v>
+        <v>0.3125547226377116</v>
       </c>
       <c r="C28">
-        <v>-0.1841469614734358</v>
+        <v>-0.09640962149661869</v>
       </c>
       <c r="D28">
-        <v>-0.01243672271925106</v>
+        <v>0.02521971223345478</v>
       </c>
       <c r="E28">
-        <v>0.03749717323369867</v>
-      </c>
-    </row>
-    <row r="29" spans="1:5">
+        <v>0.05482347653693453</v>
+      </c>
+      <c r="F28">
+        <v>-0.04217123877459977</v>
+      </c>
+      <c r="G28">
+        <v>-0.05806086346672886</v>
+      </c>
+      <c r="H28">
+        <v>0.03131159757712559</v>
+      </c>
+      <c r="I28">
+        <v>0.01542675507995611</v>
+      </c>
+    </row>
+    <row r="29" spans="1:9">
       <c r="A29" s="1" t="s">
-        <v>31</v>
+        <v>35</v>
       </c>
       <c r="B29">
-        <v>0.001559850933878698</v>
+        <v>0.002718147940053003</v>
       </c>
       <c r="C29">
-        <v>0.02227199958312662</v>
+        <v>0.04071794769333042</v>
       </c>
       <c r="D29">
-        <v>0.07644872528113439</v>
+        <v>-0.09124528796253581</v>
       </c>
       <c r="E29">
-        <v>0.03913636862589752</v>
-      </c>
-    </row>
-    <row r="30" spans="1:5">
+        <v>-0.07018933145780215</v>
+      </c>
+      <c r="F29">
+        <v>-0.03199519597129676</v>
+      </c>
+      <c r="G29">
+        <v>0.09555905254644013</v>
+      </c>
+      <c r="H29">
+        <v>0.1377214661661108</v>
+      </c>
+      <c r="I29">
+        <v>0.03728619663528064</v>
+      </c>
+    </row>
+    <row r="30" spans="1:9">
       <c r="A30" s="1" t="s">
-        <v>32</v>
+        <v>36</v>
       </c>
       <c r="B30">
-        <v>0.02645285309716236</v>
+        <v>0.01779089756333509</v>
       </c>
       <c r="C30">
-        <v>0.07174058701311556</v>
+        <v>0.0987807125524001</v>
       </c>
       <c r="D30">
-        <v>0.1443601413985673</v>
+        <v>-0.1252899659623044</v>
       </c>
       <c r="E30">
-        <v>0.05460625448079374</v>
-      </c>
-    </row>
-    <row r="31" spans="1:5">
+        <v>-0.06331398236480101</v>
+      </c>
+      <c r="F30">
+        <v>-0.02364255991070347</v>
+      </c>
+      <c r="G30">
+        <v>0.01319838606827999</v>
+      </c>
+      <c r="H30">
+        <v>0.03061918016161321</v>
+      </c>
+      <c r="I30">
+        <v>0.06417602349883821</v>
+      </c>
+    </row>
+    <row r="31" spans="1:9">
       <c r="A31" s="1" t="s">
-        <v>33</v>
+        <v>37</v>
       </c>
       <c r="B31">
-        <v>0.03510665464604949</v>
+        <v>0.01051789922400021</v>
       </c>
       <c r="C31">
-        <v>0.08517687630986891</v>
+        <v>0.0950782783153738</v>
       </c>
       <c r="D31">
-        <v>0.0500218364809922</v>
+        <v>-0.03338064630486545</v>
       </c>
       <c r="E31">
-        <v>0.02211835901863069</v>
-      </c>
-    </row>
-    <row r="32" spans="1:5">
+        <v>-0.01894990372278441</v>
+      </c>
+      <c r="F31">
+        <v>-0.01770464880506056</v>
+      </c>
+      <c r="G31">
+        <v>0.01616881202123721</v>
+      </c>
+      <c r="H31">
+        <v>0.04068558263625655</v>
+      </c>
+      <c r="I31">
+        <v>0.02623017329175938</v>
+      </c>
+    </row>
+    <row r="32" spans="1:9">
       <c r="A32" s="1" t="s">
-        <v>34</v>
+        <v>38</v>
       </c>
       <c r="B32">
-        <v>0.01688505180421619</v>
+        <v>0.01256616950921559</v>
       </c>
       <c r="C32">
-        <v>0.03968113481407318</v>
+        <v>0.05120671267309041</v>
       </c>
       <c r="D32">
-        <v>0.07326235781364503</v>
+        <v>-0.07531039276228667</v>
       </c>
       <c r="E32">
-        <v>0.0642248793472754</v>
-      </c>
-    </row>
-    <row r="33" spans="1:5">
+        <v>0.003990380369786273</v>
+      </c>
+      <c r="F32">
+        <v>-0.04897483372794205</v>
+      </c>
+      <c r="G32">
+        <v>0.02213691820989548</v>
+      </c>
+      <c r="H32">
+        <v>0.06653429712764682</v>
+      </c>
+      <c r="I32">
+        <v>0.008726211129772782</v>
+      </c>
+    </row>
+    <row r="33" spans="1:9">
       <c r="A33" s="1" t="s">
-        <v>35</v>
+        <v>39</v>
       </c>
       <c r="B33">
-        <v>0.00693352787493048</v>
+        <v>0.008700567187440182</v>
       </c>
       <c r="C33">
-        <v>0.0418472971170749</v>
+        <v>0.06332125730506932</v>
       </c>
       <c r="D33">
-        <v>0.1084633865301953</v>
+        <v>-0.1121389454048305</v>
       </c>
       <c r="E33">
-        <v>0.05954001144484302</v>
-      </c>
-    </row>
-    <row r="34" spans="1:5">
+        <v>-0.03798665861500406</v>
+      </c>
+      <c r="F33">
+        <v>-0.03088079629275373</v>
+      </c>
+      <c r="G33">
+        <v>0.0313884778571789</v>
+      </c>
+      <c r="H33">
+        <v>0.04516475654574868</v>
+      </c>
+      <c r="I33">
+        <v>0.02566197285158659</v>
+      </c>
+    </row>
+    <row r="34" spans="1:9">
       <c r="A34" s="1" t="s">
-        <v>36</v>
+        <v>40</v>
       </c>
       <c r="B34">
-        <v>0.01997869862683143</v>
+        <v>0.01089795999100497</v>
       </c>
       <c r="C34">
-        <v>0.06071122940850061</v>
+        <v>0.06367128328866951</v>
       </c>
       <c r="D34">
-        <v>0.05338140657150047</v>
+        <v>-0.02368820059260603</v>
       </c>
       <c r="E34">
-        <v>-0.03712328100937116</v>
-      </c>
-    </row>
-    <row r="35" spans="1:5">
+        <v>-0.02910329637086916</v>
+      </c>
+      <c r="F34">
+        <v>0.03873450735056302</v>
+      </c>
+      <c r="G34">
+        <v>0.03164027708715845</v>
+      </c>
+      <c r="H34">
+        <v>0.03197552959598731</v>
+      </c>
+      <c r="I34">
+        <v>0.0192709064072537</v>
+      </c>
+    </row>
+    <row r="35" spans="1:9">
       <c r="A35" s="1" t="s">
-        <v>37</v>
+        <v>41</v>
       </c>
       <c r="B35">
-        <v>0</v>
+        <v>0.003754021867854261</v>
       </c>
       <c r="C35">
-        <v>0</v>
+        <v>0.01343078675779844</v>
       </c>
       <c r="D35">
-        <v>0</v>
+        <v>-0.0321662992419746</v>
       </c>
       <c r="E35">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="36" spans="1:5">
+        <v>-0.009354132061812483</v>
+      </c>
+      <c r="F35">
+        <v>-0.01661305336543777</v>
+      </c>
+      <c r="G35">
+        <v>0.04084981633620115</v>
+      </c>
+      <c r="H35">
+        <v>0.04818695606268421</v>
+      </c>
+      <c r="I35">
+        <v>0.02489841393485376</v>
+      </c>
+    </row>
+    <row r="36" spans="1:9">
       <c r="A36" s="1" t="s">
-        <v>38</v>
+        <v>42</v>
       </c>
       <c r="B36">
-        <v>0.007526139691705402</v>
+        <v>0.01135053251358645</v>
       </c>
       <c r="C36">
-        <v>0.008921374912684436</v>
+        <v>0.02333106793162007</v>
       </c>
       <c r="D36">
-        <v>0.06482106162417015</v>
+        <v>-0.06563459660836635</v>
       </c>
       <c r="E36">
-        <v>0.05977511054946315</v>
-      </c>
-    </row>
-    <row r="37" spans="1:5">
+        <v>-0.03256316514990185</v>
+      </c>
+      <c r="F36">
+        <v>-0.05104965533270829</v>
+      </c>
+      <c r="G36">
+        <v>0.02970379576254464</v>
+      </c>
+      <c r="H36">
+        <v>0.05950734359800704</v>
+      </c>
+      <c r="I36">
+        <v>0.02886960290780624</v>
+      </c>
+    </row>
+    <row r="37" spans="1:9">
       <c r="A37" s="1" t="s">
-        <v>39</v>
+        <v>43</v>
       </c>
       <c r="B37">
         <v>0</v>
@@ -1323,78 +1767,138 @@
       <c r="E37">
         <v>0</v>
       </c>
-    </row>
-    <row r="38" spans="1:5">
+      <c r="F37">
+        <v>0</v>
+      </c>
+      <c r="G37">
+        <v>0</v>
+      </c>
+      <c r="H37">
+        <v>0</v>
+      </c>
+      <c r="I37">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="38" spans="1:9">
       <c r="A38" s="1" t="s">
-        <v>40</v>
+        <v>44</v>
       </c>
       <c r="B38">
-        <v>0.00510834753389047</v>
+        <v>0.01100219315795488</v>
       </c>
       <c r="C38">
-        <v>0.008939091163881922</v>
+        <v>0.02792493481037408</v>
       </c>
       <c r="D38">
-        <v>0.07637429222003433</v>
+        <v>-0.08592835660451345</v>
       </c>
       <c r="E38">
-        <v>0.02049771633879896</v>
-      </c>
-    </row>
-    <row r="39" spans="1:5">
+        <v>-0.01798031870799442</v>
+      </c>
+      <c r="F38">
+        <v>-0.005762677510072934</v>
+      </c>
+      <c r="G38">
+        <v>0.008958830309719893</v>
+      </c>
+      <c r="H38">
+        <v>0.05449416716554422</v>
+      </c>
+      <c r="I38">
+        <v>0.06091027592067511</v>
+      </c>
+    </row>
+    <row r="39" spans="1:9">
       <c r="A39" s="1" t="s">
-        <v>41</v>
+        <v>45</v>
       </c>
       <c r="B39">
-        <v>0.01554939661056571</v>
+        <v>0.007896863497553554</v>
       </c>
       <c r="C39">
-        <v>0.06178069271470064</v>
+        <v>0.08429774786183447</v>
       </c>
       <c r="D39">
-        <v>0.1002729894943543</v>
+        <v>-0.08605562759856829</v>
       </c>
       <c r="E39">
-        <v>0.01371096958404121</v>
-      </c>
-    </row>
-    <row r="40" spans="1:5">
+        <v>-0.05993098636741988</v>
+      </c>
+      <c r="F39">
+        <v>0.005748065202727357</v>
+      </c>
+      <c r="G39">
+        <v>0.07032598769719688</v>
+      </c>
+      <c r="H39">
+        <v>0.06886108272276979</v>
+      </c>
+      <c r="I39">
+        <v>0.05161667728360438</v>
+      </c>
+    </row>
+    <row r="40" spans="1:9">
       <c r="A40" s="1" t="s">
-        <v>42</v>
+        <v>46</v>
       </c>
       <c r="B40">
-        <v>0.01946872213259768</v>
+        <v>0.01481785927131459</v>
       </c>
       <c r="C40">
-        <v>0.02409416743961133</v>
+        <v>0.04400805189784224</v>
       </c>
       <c r="D40">
-        <v>0.1140401010690952</v>
+        <v>-0.08974041245210852</v>
       </c>
       <c r="E40">
-        <v>0.009684854031881306</v>
-      </c>
-    </row>
-    <row r="41" spans="1:5">
+        <v>-0.05574888924718433</v>
+      </c>
+      <c r="F40">
+        <v>0.02580397607027762</v>
+      </c>
+      <c r="G40">
+        <v>-0.01504836979246111</v>
+      </c>
+      <c r="H40">
+        <v>0.1019484739870698</v>
+      </c>
+      <c r="I40">
+        <v>0.002266062877666071</v>
+      </c>
+    </row>
+    <row r="41" spans="1:9">
       <c r="A41" s="1" t="s">
-        <v>43</v>
+        <v>47</v>
       </c>
       <c r="B41">
-        <v>0.008572621624306389</v>
+        <v>0.01811937876494981</v>
       </c>
       <c r="C41">
-        <v>0.00459594158560635</v>
+        <v>0.02201322118522923</v>
       </c>
       <c r="D41">
-        <v>0.03293832483328264</v>
+        <v>-0.04351591970094385</v>
       </c>
       <c r="E41">
-        <v>0.03499860396886116</v>
-      </c>
-    </row>
-    <row r="42" spans="1:5">
+        <v>0.0001395346760861788</v>
+      </c>
+      <c r="F41">
+        <v>-0.02367370136913038</v>
+      </c>
+      <c r="G41">
+        <v>0.02119907542566267</v>
+      </c>
+      <c r="H41">
+        <v>0.03002520731155778</v>
+      </c>
+      <c r="I41">
+        <v>0.02171752636348571</v>
+      </c>
+    </row>
+    <row r="42" spans="1:9">
       <c r="A42" s="1" t="s">
-        <v>44</v>
+        <v>48</v>
       </c>
       <c r="B42">
         <v>0</v>
@@ -1408,44 +1912,80 @@
       <c r="E42">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="1:5">
+      <c r="F42">
+        <v>0</v>
+      </c>
+      <c r="G42">
+        <v>0</v>
+      </c>
+      <c r="H42">
+        <v>0</v>
+      </c>
+      <c r="I42">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="1:9">
       <c r="A43" s="1" t="s">
-        <v>45</v>
+        <v>49</v>
       </c>
       <c r="B43">
-        <v>0.0005539876097231202</v>
+        <v>0.01023356594745193</v>
       </c>
       <c r="C43">
-        <v>0.003654301327495191</v>
+        <v>0.01800020026846999</v>
       </c>
       <c r="D43">
-        <v>0.04907569975454432</v>
+        <v>-0.05091807416347722</v>
       </c>
       <c r="E43">
-        <v>0.03094031420182594</v>
-      </c>
-    </row>
-    <row r="44" spans="1:5">
+        <v>-0.01598781210710514</v>
+      </c>
+      <c r="F43">
+        <v>-0.0234679756555637</v>
+      </c>
+      <c r="G43">
+        <v>0.02596072340588195</v>
+      </c>
+      <c r="H43">
+        <v>0.03898566260546857</v>
+      </c>
+      <c r="I43">
+        <v>0.04255019179034442</v>
+      </c>
+    </row>
+    <row r="44" spans="1:9">
       <c r="A44" s="1" t="s">
-        <v>46</v>
+        <v>50</v>
       </c>
       <c r="B44">
-        <v>0.01988810713542873</v>
+        <v>0.0126443203715918</v>
       </c>
       <c r="C44">
-        <v>0.02446675631294513</v>
+        <v>0.04938153796611332</v>
       </c>
       <c r="D44">
-        <v>0.08409038713413013</v>
+        <v>-0.09894026032344028</v>
       </c>
       <c r="E44">
-        <v>0.06788474391893794</v>
-      </c>
-    </row>
-    <row r="45" spans="1:5">
+        <v>-0.04605730850252196</v>
+      </c>
+      <c r="F44">
+        <v>-0.04159821179200992</v>
+      </c>
+      <c r="G44">
+        <v>0.006247124969095761</v>
+      </c>
+      <c r="H44">
+        <v>0.0582093598200531</v>
+      </c>
+      <c r="I44">
+        <v>0.04576423764982072</v>
+      </c>
+    </row>
+    <row r="45" spans="1:9">
       <c r="A45" s="1" t="s">
-        <v>47</v>
+        <v>51</v>
       </c>
       <c r="B45">
         <v>0</v>
@@ -1459,61 +1999,109 @@
       <c r="E45">
         <v>0</v>
       </c>
-    </row>
-    <row r="46" spans="1:5">
+      <c r="F45">
+        <v>0</v>
+      </c>
+      <c r="G45">
+        <v>0</v>
+      </c>
+      <c r="H45">
+        <v>0</v>
+      </c>
+      <c r="I45">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="1:9">
       <c r="A46" s="1" t="s">
-        <v>48</v>
+        <v>52</v>
       </c>
       <c r="B46">
-        <v>0.004889144401958789</v>
+        <v>-6.42008568925678e-05</v>
       </c>
       <c r="C46">
-        <v>0.0305596876971225</v>
+        <v>0.0426194995639143</v>
       </c>
       <c r="D46">
-        <v>0.07310548851108541</v>
+        <v>-0.06710000385266383</v>
       </c>
       <c r="E46">
-        <v>0.03655868474625901</v>
-      </c>
-    </row>
-    <row r="47" spans="1:5">
+        <v>-0.05045989915944915</v>
+      </c>
+      <c r="F46">
+        <v>-0.03593806105245435</v>
+      </c>
+      <c r="G46">
+        <v>0.05587631377951149</v>
+      </c>
+      <c r="H46">
+        <v>0.1061538215045211</v>
+      </c>
+      <c r="I46">
+        <v>0.05686955734200806</v>
+      </c>
+    </row>
+    <row r="47" spans="1:9">
       <c r="A47" s="1" t="s">
-        <v>49</v>
+        <v>53</v>
       </c>
       <c r="B47">
-        <v>0.07484535542310061</v>
+        <v>0.03249191513531789</v>
       </c>
       <c r="C47">
-        <v>0.1106059793236874</v>
+        <v>0.1262794609198972</v>
       </c>
       <c r="D47">
-        <v>0.0430964582715575</v>
+        <v>-0.01695810809143396</v>
       </c>
       <c r="E47">
-        <v>0.02316498339773898</v>
-      </c>
-    </row>
-    <row r="48" spans="1:5">
+        <v>0.01345775064522304</v>
+      </c>
+      <c r="F47">
+        <v>0.004267970672636162</v>
+      </c>
+      <c r="G47">
+        <v>0.05105122176059291</v>
+      </c>
+      <c r="H47">
+        <v>0.02754295103699035</v>
+      </c>
+      <c r="I47">
+        <v>0.03572509609195963</v>
+      </c>
+    </row>
+    <row r="48" spans="1:9">
       <c r="A48" s="1" t="s">
-        <v>50</v>
+        <v>54</v>
       </c>
       <c r="B48">
-        <v>0.009921663013001104</v>
+        <v>0.01509637656583316</v>
       </c>
       <c r="C48">
-        <v>0.01951440333141971</v>
+        <v>0.03447742734598885</v>
       </c>
       <c r="D48">
-        <v>0.06331149459535872</v>
+        <v>-0.067716157233806</v>
       </c>
       <c r="E48">
-        <v>0.06208925331360329</v>
-      </c>
-    </row>
-    <row r="49" spans="1:5">
+        <v>-0.02315563115761244</v>
+      </c>
+      <c r="F48">
+        <v>-0.05741867684290294</v>
+      </c>
+      <c r="G48">
+        <v>0.04578343826152378</v>
+      </c>
+      <c r="H48">
+        <v>0.0936040020135404</v>
+      </c>
+      <c r="I48">
+        <v>0.05791777015169053</v>
+      </c>
+    </row>
+    <row r="49" spans="1:9">
       <c r="A49" s="1" t="s">
-        <v>51</v>
+        <v>55</v>
       </c>
       <c r="B49">
         <v>0</v>
@@ -1527,44 +2115,80 @@
       <c r="E49">
         <v>0</v>
       </c>
-    </row>
-    <row r="50" spans="1:5">
+      <c r="F49">
+        <v>0</v>
+      </c>
+      <c r="G49">
+        <v>0</v>
+      </c>
+      <c r="H49">
+        <v>0</v>
+      </c>
+      <c r="I49">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="1:9">
       <c r="A50" s="1" t="s">
-        <v>52</v>
+        <v>56</v>
       </c>
       <c r="B50">
-        <v>0.030740832743851</v>
+        <v>0.01322068158100683</v>
       </c>
       <c r="C50">
-        <v>0.05934401062106828</v>
+        <v>0.07560542539461707</v>
       </c>
       <c r="D50">
-        <v>0.053462921963926</v>
+        <v>-0.04411623799202741</v>
       </c>
       <c r="E50">
-        <v>0.01692760273681723</v>
-      </c>
-    </row>
-    <row r="51" spans="1:5">
+        <v>-0.01595072970340009</v>
+      </c>
+      <c r="F50">
+        <v>-0.01108358472165416</v>
+      </c>
+      <c r="G50">
+        <v>0.004975486963318405</v>
+      </c>
+      <c r="H50">
+        <v>0.02603588463062913</v>
+      </c>
+      <c r="I50">
+        <v>0.03154215070565961</v>
+      </c>
+    </row>
+    <row r="51" spans="1:9">
       <c r="A51" s="1" t="s">
-        <v>53</v>
+        <v>57</v>
       </c>
       <c r="B51">
-        <v>0.003965468147217463</v>
+        <v>-0.002036987897053049</v>
       </c>
       <c r="C51">
-        <v>0.007584202214785788</v>
+        <v>0.01780872845596533</v>
       </c>
       <c r="D51">
-        <v>0.0591071172826861</v>
+        <v>-0.04469583287643679</v>
       </c>
       <c r="E51">
-        <v>0.02462769340620861</v>
-      </c>
-    </row>
-    <row r="52" spans="1:5">
+        <v>-0.03713631569609663</v>
+      </c>
+      <c r="F51">
+        <v>-0.03902638813706356</v>
+      </c>
+      <c r="G51">
+        <v>0.004247665150844381</v>
+      </c>
+      <c r="H51">
+        <v>0.07471379300748462</v>
+      </c>
+      <c r="I51">
+        <v>0.01838280108521966</v>
+      </c>
+    </row>
+    <row r="52" spans="1:9">
       <c r="A52" s="1" t="s">
-        <v>54</v>
+        <v>58</v>
       </c>
       <c r="B52">
         <v>0</v>
@@ -1578,78 +2202,138 @@
       <c r="E52">
         <v>0</v>
       </c>
-    </row>
-    <row r="53" spans="1:5">
+      <c r="F52">
+        <v>0</v>
+      </c>
+      <c r="G52">
+        <v>0</v>
+      </c>
+      <c r="H52">
+        <v>0</v>
+      </c>
+      <c r="I52">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="1:9">
       <c r="A53" s="1" t="s">
-        <v>55</v>
+        <v>59</v>
       </c>
       <c r="B53">
-        <v>0.1058362308727666</v>
+        <v>0.05889229139595246</v>
       </c>
       <c r="C53">
-        <v>0.1284254804996099</v>
+        <v>0.1579665504751352</v>
       </c>
       <c r="D53">
-        <v>-0.01853338602612936</v>
+        <v>0.02745378414164805</v>
       </c>
       <c r="E53">
-        <v>0.0392375538258994</v>
-      </c>
-    </row>
-    <row r="54" spans="1:5">
+        <v>0.0349153579959342</v>
+      </c>
+      <c r="F53">
+        <v>-0.04145284402454064</v>
+      </c>
+      <c r="G53">
+        <v>0.006668747645618654</v>
+      </c>
+      <c r="H53">
+        <v>0.01031111448895558</v>
+      </c>
+      <c r="I53">
+        <v>0.01893283907640171</v>
+      </c>
+    </row>
+    <row r="54" spans="1:9">
       <c r="A54" s="1" t="s">
-        <v>56</v>
+        <v>60</v>
       </c>
       <c r="B54">
-        <v>0.01163099006921197</v>
+        <v>0.0124712302951855</v>
       </c>
       <c r="C54">
-        <v>0.02344041710193907</v>
+        <v>0.04066569105431752</v>
       </c>
       <c r="D54">
-        <v>0.08418985960148405</v>
+        <v>-0.07390079758175602</v>
       </c>
       <c r="E54">
-        <v>0.02124575187824927</v>
-      </c>
-    </row>
-    <row r="55" spans="1:5">
+        <v>-0.02358759580002358</v>
+      </c>
+      <c r="F54">
+        <v>-0.00642571604959068</v>
+      </c>
+      <c r="G54">
+        <v>0.02124880530562436</v>
+      </c>
+      <c r="H54">
+        <v>0.06757508940520573</v>
+      </c>
+      <c r="I54">
+        <v>0.06026533949642564</v>
+      </c>
+    </row>
+    <row r="55" spans="1:9">
       <c r="A55" s="1" t="s">
-        <v>57</v>
+        <v>61</v>
       </c>
       <c r="B55">
-        <v>0.09152700793029077</v>
+        <v>0.04390371677834013</v>
       </c>
       <c r="C55">
-        <v>0.1107940968960756</v>
+        <v>0.1295572384556916</v>
       </c>
       <c r="D55">
-        <v>-0.001338148049974926</v>
+        <v>0.04449277195454315</v>
       </c>
       <c r="E55">
-        <v>-0.006442303005623742</v>
-      </c>
-    </row>
-    <row r="56" spans="1:5">
+        <v>0.0001434319732261769</v>
+      </c>
+      <c r="F55">
+        <v>-0.0022122109806829</v>
+      </c>
+      <c r="G55">
+        <v>-0.0045588241907955</v>
+      </c>
+      <c r="H55">
+        <v>0.01401072099236854</v>
+      </c>
+      <c r="I55">
+        <v>-0.003471852944371748</v>
+      </c>
+    </row>
+    <row r="56" spans="1:9">
       <c r="A56" s="1" t="s">
-        <v>58</v>
+        <v>62</v>
       </c>
       <c r="B56">
-        <v>0.1285426021182882</v>
+        <v>0.05947967712834742</v>
       </c>
       <c r="C56">
-        <v>0.1517116751401145</v>
+        <v>0.1879289695744338</v>
       </c>
       <c r="D56">
-        <v>0.005580092254511623</v>
+        <v>0.04320836577845559</v>
       </c>
       <c r="E56">
-        <v>-0.006889164420126471</v>
-      </c>
-    </row>
-    <row r="57" spans="1:5">
+        <v>0.03427920869352607</v>
+      </c>
+      <c r="F56">
+        <v>-0.006572304109075408</v>
+      </c>
+      <c r="G56">
+        <v>-0.03900737193932748</v>
+      </c>
+      <c r="H56">
+        <v>0.03859320955933272</v>
+      </c>
+      <c r="I56">
+        <v>0.01016267559659272</v>
+      </c>
+    </row>
+    <row r="57" spans="1:9">
       <c r="A57" s="1" t="s">
-        <v>59</v>
+        <v>63</v>
       </c>
       <c r="B57">
         <v>0</v>
@@ -1663,78 +2347,138 @@
       <c r="E57">
         <v>0</v>
       </c>
-    </row>
-    <row r="58" spans="1:5">
+      <c r="F57">
+        <v>0</v>
+      </c>
+      <c r="G57">
+        <v>0</v>
+      </c>
+      <c r="H57">
+        <v>0</v>
+      </c>
+      <c r="I57">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="58" spans="1:9">
       <c r="A58" s="1" t="s">
-        <v>60</v>
+        <v>64</v>
       </c>
       <c r="B58">
-        <v>-0.003284044076909897</v>
+        <v>0.005516008096158116</v>
       </c>
       <c r="C58">
-        <v>0.0195415516078754</v>
+        <v>0.06534579432008586</v>
       </c>
       <c r="D58">
-        <v>0.2154494727101013</v>
+        <v>-0.2771442308119158</v>
       </c>
       <c r="E58">
-        <v>0.1498940282641622</v>
-      </c>
-    </row>
-    <row r="59" spans="1:5">
+        <v>-0.04167552010523239</v>
+      </c>
+      <c r="F58">
+        <v>-0.1403597388994458</v>
+      </c>
+      <c r="G58">
+        <v>-0.1573794422795686</v>
+      </c>
+      <c r="H58">
+        <v>-0.009856938537905476</v>
+      </c>
+      <c r="I58">
+        <v>0.04196726509787626</v>
+      </c>
+    </row>
+    <row r="59" spans="1:9">
       <c r="A59" s="1" t="s">
-        <v>61</v>
+        <v>65</v>
       </c>
       <c r="B59">
-        <v>0.1891120474154006</v>
+        <v>0.2552800295771531</v>
       </c>
       <c r="C59">
-        <v>-0.1330472345761146</v>
+        <v>-0.06023653189092876</v>
       </c>
       <c r="D59">
-        <v>0.03840134645436563</v>
+        <v>-0.0466591539885558</v>
       </c>
       <c r="E59">
-        <v>0.03295044128215051</v>
-      </c>
-    </row>
-    <row r="60" spans="1:5">
+        <v>0.02114161183831744</v>
+      </c>
+      <c r="F59">
+        <v>-0.01980336054063045</v>
+      </c>
+      <c r="G59">
+        <v>-0.01138706006269479</v>
+      </c>
+      <c r="H59">
+        <v>0.02023787846389745</v>
+      </c>
+      <c r="I59">
+        <v>-0.03128326634131796</v>
+      </c>
+    </row>
+    <row r="60" spans="1:9">
       <c r="A60" s="1" t="s">
-        <v>62</v>
+        <v>66</v>
       </c>
       <c r="B60">
-        <v>0.1841025081404642</v>
+        <v>0.155563758905519</v>
       </c>
       <c r="C60">
-        <v>0.1084566915278242</v>
+        <v>0.1727437308509594</v>
       </c>
       <c r="D60">
-        <v>0.2068146893659342</v>
+        <v>-0.07560962915539032</v>
       </c>
       <c r="E60">
-        <v>-0.05357295176502695</v>
-      </c>
-    </row>
-    <row r="61" spans="1:5">
+        <v>-0.1457714832791455</v>
+      </c>
+      <c r="F60">
+        <v>0.196719721781293</v>
+      </c>
+      <c r="G60">
+        <v>0.09666927066217769</v>
+      </c>
+      <c r="H60">
+        <v>-0.248052999544797</v>
+      </c>
+      <c r="I60">
+        <v>-0.2035048617126759</v>
+      </c>
+    </row>
+    <row r="61" spans="1:9">
       <c r="A61" s="1" t="s">
-        <v>63</v>
+        <v>67</v>
       </c>
       <c r="B61">
-        <v>0.02530851241846369</v>
+        <v>0.0153642667299702</v>
       </c>
       <c r="C61">
-        <v>0.05714484936346348</v>
+        <v>0.07938989967620261</v>
       </c>
       <c r="D61">
-        <v>0.07740149398594087</v>
+        <v>-0.06422220146923122</v>
       </c>
       <c r="E61">
-        <v>0.004141651569763575</v>
-      </c>
-    </row>
-    <row r="62" spans="1:5">
+        <v>-0.04186998513530901</v>
+      </c>
+      <c r="F61">
+        <v>0.01488437312294493</v>
+      </c>
+      <c r="G61">
+        <v>0.06704658007081993</v>
+      </c>
+      <c r="H61">
+        <v>0.05480431135633545</v>
+      </c>
+      <c r="I61">
+        <v>0.0348027465422877</v>
+      </c>
+    </row>
+    <row r="62" spans="1:9">
       <c r="A62" s="1" t="s">
-        <v>64</v>
+        <v>68</v>
       </c>
       <c r="B62">
         <v>0</v>
@@ -1748,129 +2492,225 @@
       <c r="E62">
         <v>0</v>
       </c>
-    </row>
-    <row r="63" spans="1:5">
+      <c r="F62">
+        <v>0</v>
+      </c>
+      <c r="G62">
+        <v>0</v>
+      </c>
+      <c r="H62">
+        <v>0</v>
+      </c>
+      <c r="I62">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63" spans="1:9">
       <c r="A63" s="1" t="s">
-        <v>65</v>
+        <v>69</v>
       </c>
       <c r="B63">
-        <v>0.01059562587043401</v>
+        <v>0.01433469675393476</v>
       </c>
       <c r="C63">
-        <v>0.02695606934375911</v>
+        <v>0.04301948839102955</v>
       </c>
       <c r="D63">
-        <v>0.07559196420573898</v>
+        <v>-0.05410942204111843</v>
       </c>
       <c r="E63">
-        <v>0.03249361382156837</v>
-      </c>
-    </row>
-    <row r="64" spans="1:5">
+        <v>-0.06142654767186179</v>
+      </c>
+      <c r="F63">
+        <v>-0.02419726218032039</v>
+      </c>
+      <c r="G63">
+        <v>0.04022030223688819</v>
+      </c>
+      <c r="H63">
+        <v>0.0554202115142768</v>
+      </c>
+      <c r="I63">
+        <v>0.0398664647664367</v>
+      </c>
+    </row>
+    <row r="64" spans="1:9">
       <c r="A64" s="1" t="s">
-        <v>66</v>
+        <v>70</v>
       </c>
       <c r="B64">
-        <v>0.05241519083727787</v>
+        <v>0.0185404997509832</v>
       </c>
       <c r="C64">
-        <v>0.0867615814067516</v>
+        <v>0.1015184743796595</v>
       </c>
       <c r="D64">
-        <v>0.01411588843593898</v>
+        <v>-0.007544703255536629</v>
       </c>
       <c r="E64">
-        <v>0.02354725280778307</v>
-      </c>
-    </row>
-    <row r="65" spans="1:5">
+        <v>-0.02232210382845099</v>
+      </c>
+      <c r="F64">
+        <v>-0.02040946434174985</v>
+      </c>
+      <c r="G64">
+        <v>0.047393268250901</v>
+      </c>
+      <c r="H64">
+        <v>0.01613065393118291</v>
+      </c>
+      <c r="I64">
+        <v>0.04731453199310887</v>
+      </c>
+    </row>
+    <row r="65" spans="1:9">
       <c r="A65" s="1" t="s">
-        <v>67</v>
+        <v>71</v>
       </c>
       <c r="B65">
-        <v>0.02642219857396555</v>
+        <v>0.02547247610875431</v>
       </c>
       <c r="C65">
-        <v>0.02042742926183595</v>
+        <v>0.0481880351362487</v>
       </c>
       <c r="D65">
-        <v>0.1018158376782722</v>
+        <v>-0.1037916881404386</v>
       </c>
       <c r="E65">
-        <v>0.03293093136145162</v>
-      </c>
-    </row>
-    <row r="66" spans="1:5">
+        <v>-0.05446203279454603</v>
+      </c>
+      <c r="F65">
+        <v>0.002501811720917168</v>
+      </c>
+      <c r="G65">
+        <v>0.03557616073520079</v>
+      </c>
+      <c r="H65">
+        <v>-0.02571943549970104</v>
+      </c>
+      <c r="I65">
+        <v>0.02960250833249227</v>
+      </c>
+    </row>
+    <row r="66" spans="1:9">
       <c r="A66" s="1" t="s">
-        <v>68</v>
+        <v>72</v>
       </c>
       <c r="B66">
-        <v>0.02174703383006727</v>
+        <v>0.007523683855347451</v>
       </c>
       <c r="C66">
-        <v>0.07281910673016045</v>
+        <v>0.104559797091766</v>
       </c>
       <c r="D66">
-        <v>0.1206323987174317</v>
+        <v>-0.111012544540941</v>
       </c>
       <c r="E66">
-        <v>0.0156587660777195</v>
-      </c>
-    </row>
-    <row r="67" spans="1:5">
+        <v>-0.05459758224149618</v>
+      </c>
+      <c r="F66">
+        <v>0.005960356730616598</v>
+      </c>
+      <c r="G66">
+        <v>0.03663354558905313</v>
+      </c>
+      <c r="H66">
+        <v>0.05550316247261539</v>
+      </c>
+      <c r="I66">
+        <v>0.04355938189014525</v>
+      </c>
+    </row>
+    <row r="67" spans="1:9">
       <c r="A67" s="1" t="s">
-        <v>69</v>
+        <v>73</v>
       </c>
       <c r="B67">
-        <v>0.0215388359776567</v>
+        <v>0.02137101316454471</v>
       </c>
       <c r="C67">
-        <v>0.02134200513568503</v>
+        <v>0.03783219680397962</v>
       </c>
       <c r="D67">
-        <v>0.04532690419438867</v>
+        <v>-0.04504698554412739</v>
       </c>
       <c r="E67">
-        <v>-0.01266734343047753</v>
-      </c>
-    </row>
-    <row r="68" spans="1:5">
+        <v>-0.02135990415522911</v>
+      </c>
+      <c r="F67">
+        <v>0.02523273194624581</v>
+      </c>
+      <c r="G67">
+        <v>0.02322565793835273</v>
+      </c>
+      <c r="H67">
+        <v>0.04387548726087581</v>
+      </c>
+      <c r="I67">
+        <v>0.0495024879472158</v>
+      </c>
+    </row>
+    <row r="68" spans="1:9">
       <c r="A68" s="1" t="s">
-        <v>70</v>
+        <v>74</v>
       </c>
       <c r="B68">
-        <v>0.2096070816568094</v>
+        <v>0.2780195061219944</v>
       </c>
       <c r="C68">
-        <v>-0.1460316327953927</v>
+        <v>-0.07009901209931832</v>
       </c>
       <c r="D68">
-        <v>0.02596591794911812</v>
+        <v>-0.02826762247219845</v>
       </c>
       <c r="E68">
-        <v>0.02260878544569287</v>
-      </c>
-    </row>
-    <row r="69" spans="1:5">
+        <v>0.0006296691729402862</v>
+      </c>
+      <c r="F68">
+        <v>-0.02729327130840812</v>
+      </c>
+      <c r="G68">
+        <v>-0.07938181300298509</v>
+      </c>
+      <c r="H68">
+        <v>-0.01241785576393552</v>
+      </c>
+      <c r="I68">
+        <v>-0.01641124716227331</v>
+      </c>
+    </row>
+    <row r="69" spans="1:9">
       <c r="A69" s="1" t="s">
-        <v>71</v>
+        <v>75</v>
       </c>
       <c r="B69">
-        <v>0.05222123830072972</v>
+        <v>0.01551139225297781</v>
       </c>
       <c r="C69">
-        <v>0.121896037505006</v>
+        <v>0.1182252111116409</v>
       </c>
       <c r="D69">
-        <v>0.06717086707390525</v>
+        <v>-0.0191822570383421</v>
       </c>
       <c r="E69">
-        <v>0.01732220215836065</v>
-      </c>
-    </row>
-    <row r="70" spans="1:5">
+        <v>-0.006946471516022613</v>
+      </c>
+      <c r="F69">
+        <v>0.0121969533548054</v>
+      </c>
+      <c r="G69">
+        <v>0.03312922709480633</v>
+      </c>
+      <c r="H69">
+        <v>0.03173389985621198</v>
+      </c>
+      <c r="I69">
+        <v>0.02050645537576289</v>
+      </c>
+    </row>
+    <row r="70" spans="1:9">
       <c r="A70" s="1" t="s">
-        <v>72</v>
+        <v>76</v>
       </c>
       <c r="B70">
         <v>0</v>
@@ -1884,435 +2724,747 @@
       <c r="E70">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="1:5">
+      <c r="F70">
+        <v>0</v>
+      </c>
+      <c r="G70">
+        <v>0</v>
+      </c>
+      <c r="H70">
+        <v>0</v>
+      </c>
+      <c r="I70">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="1:9">
       <c r="A71" s="1" t="s">
-        <v>73</v>
+        <v>77</v>
       </c>
       <c r="B71">
-        <v>0.2214248689956637</v>
+        <v>0.2713363400174578</v>
       </c>
       <c r="C71">
-        <v>-0.1679690671301192</v>
+        <v>-0.08771799891146538</v>
       </c>
       <c r="D71">
-        <v>0.02246866318779459</v>
+        <v>-0.01238275531185139</v>
       </c>
       <c r="E71">
-        <v>0.01224587279251901</v>
-      </c>
-    </row>
-    <row r="72" spans="1:5">
+        <v>0.006221946648095653</v>
+      </c>
+      <c r="F71">
+        <v>-0.01580736237689777</v>
+      </c>
+      <c r="G71">
+        <v>-0.03856921604511497</v>
+      </c>
+      <c r="H71">
+        <v>0.01743003806132042</v>
+      </c>
+      <c r="I71">
+        <v>0.01559845937762502</v>
+      </c>
+    </row>
+    <row r="72" spans="1:9">
       <c r="A72" s="1" t="s">
-        <v>74</v>
+        <v>78</v>
       </c>
       <c r="B72">
-        <v>0.1001783161018186</v>
+        <v>0.06250876514670548</v>
       </c>
       <c r="C72">
-        <v>0.07593637544537603</v>
+        <v>0.1253406805615353</v>
       </c>
       <c r="D72">
-        <v>0.1156748444898889</v>
+        <v>-0.05634131683410142</v>
       </c>
       <c r="E72">
-        <v>0.007023412454502109</v>
-      </c>
-    </row>
-    <row r="73" spans="1:5">
+        <v>-0.0715930114151828</v>
+      </c>
+      <c r="F72">
+        <v>0.01944286728434837</v>
+      </c>
+      <c r="G72">
+        <v>0.06051829066971762</v>
+      </c>
+      <c r="H72">
+        <v>0.01080013791615631</v>
+      </c>
+      <c r="I72">
+        <v>0.01717906366019189</v>
+      </c>
+    </row>
+    <row r="73" spans="1:9">
       <c r="A73" s="1" t="s">
-        <v>75</v>
+        <v>79</v>
       </c>
       <c r="B73">
-        <v>0.1737931871489074</v>
+        <v>0.1578470227903549</v>
       </c>
       <c r="C73">
-        <v>0.07546737209025495</v>
+        <v>0.1627693963071612</v>
       </c>
       <c r="D73">
-        <v>0.2477688060468989</v>
+        <v>-0.08858364824943843</v>
       </c>
       <c r="E73">
-        <v>-0.1077144544597679</v>
-      </c>
-    </row>
-    <row r="74" spans="1:5">
+        <v>-0.2828264013588631</v>
+      </c>
+      <c r="F73">
+        <v>0.2877930446729845</v>
+      </c>
+      <c r="G73">
+        <v>0.2816655265434992</v>
+      </c>
+      <c r="H73">
+        <v>-0.3216886692272929</v>
+      </c>
+      <c r="I73">
+        <v>-0.162352832634346</v>
+      </c>
+    </row>
+    <row r="74" spans="1:9">
       <c r="A74" s="1" t="s">
-        <v>76</v>
+        <v>80</v>
       </c>
       <c r="B74">
-        <v>0.1017624144902467</v>
+        <v>0.05407987205343805</v>
       </c>
       <c r="C74">
-        <v>0.118474746155743</v>
+        <v>0.140735069660365</v>
       </c>
       <c r="D74">
-        <v>-0.03916191458937967</v>
+        <v>0.0530400636218443</v>
       </c>
       <c r="E74">
-        <v>0.02274174689879868</v>
-      </c>
-    </row>
-    <row r="75" spans="1:5">
+        <v>0.01887995708390198</v>
+      </c>
+      <c r="F74">
+        <v>-0.02833063028164412</v>
+      </c>
+      <c r="G74">
+        <v>-0.008660523082112659</v>
+      </c>
+      <c r="H74">
+        <v>-0.01862908873047048</v>
+      </c>
+      <c r="I74">
+        <v>-0.01122127081533237</v>
+      </c>
+    </row>
+    <row r="75" spans="1:9">
       <c r="A75" s="1" t="s">
-        <v>77</v>
+        <v>81</v>
       </c>
       <c r="B75">
-        <v>0.2187205695865592</v>
+        <v>0.1008956216080617</v>
       </c>
       <c r="C75">
-        <v>0.2076277654713595</v>
+        <v>0.2599296386327893</v>
       </c>
       <c r="D75">
-        <v>-0.08510170647802907</v>
+        <v>0.1317219747542238</v>
       </c>
       <c r="E75">
-        <v>-0.07756517986970017</v>
-      </c>
-    </row>
-    <row r="76" spans="1:5">
+        <v>0.1032492250414978</v>
+      </c>
+      <c r="F75">
+        <v>0.04439349292559484</v>
+      </c>
+      <c r="G75">
+        <v>-0.09628798843690527</v>
+      </c>
+      <c r="H75">
+        <v>0.0524604447064013</v>
+      </c>
+      <c r="I75">
+        <v>0.08133419638540888</v>
+      </c>
+    </row>
+    <row r="76" spans="1:9">
       <c r="A76" s="1" t="s">
-        <v>78</v>
+        <v>82</v>
       </c>
       <c r="B76">
-        <v>0.1319186601916763</v>
+        <v>0.06111310159976386</v>
       </c>
       <c r="C76">
-        <v>0.1418853151745049</v>
+        <v>0.1768769053863208</v>
       </c>
       <c r="D76">
-        <v>-0.001520599636980667</v>
+        <v>0.05350940685712694</v>
       </c>
       <c r="E76">
-        <v>-0.01236845410234541</v>
-      </c>
-    </row>
-    <row r="77" spans="1:5">
+        <v>0.02711448770807367</v>
+      </c>
+      <c r="F76">
+        <v>0.002830778177087807</v>
+      </c>
+      <c r="G76">
+        <v>-0.02844693658127283</v>
+      </c>
+      <c r="H76">
+        <v>0.04741083230946439</v>
+      </c>
+      <c r="I76">
+        <v>0.03310421893020012</v>
+      </c>
+    </row>
+    <row r="77" spans="1:9">
       <c r="A77" s="1" t="s">
-        <v>79</v>
+        <v>83</v>
       </c>
       <c r="B77">
-        <v>0.01421167472895771</v>
+        <v>-0.001164249149611719</v>
       </c>
       <c r="C77">
-        <v>0.06895225412300646</v>
+        <v>0.108150542006582</v>
       </c>
       <c r="D77">
-        <v>0.02813518099179836</v>
+        <v>-0.3893021981511076</v>
       </c>
       <c r="E77">
-        <v>0.08287197369708377</v>
-      </c>
-    </row>
-    <row r="78" spans="1:5">
+        <v>0.8213893040049848</v>
+      </c>
+      <c r="F77">
+        <v>0.2136131658442219</v>
+      </c>
+      <c r="G77">
+        <v>0.1039519072038002</v>
+      </c>
+      <c r="H77">
+        <v>-0.1937795651462018</v>
+      </c>
+      <c r="I77">
+        <v>-0.04168983862160923</v>
+      </c>
+    </row>
+    <row r="78" spans="1:9">
       <c r="A78" s="1" t="s">
-        <v>80</v>
+        <v>84</v>
       </c>
       <c r="B78">
-        <v>0.02825085466876353</v>
+        <v>0.02095659992793392</v>
       </c>
       <c r="C78">
-        <v>0.0774240883112654</v>
+        <v>0.0974251385700092</v>
       </c>
       <c r="D78">
-        <v>0.1410519308537632</v>
+        <v>-0.09779070418645056</v>
       </c>
       <c r="E78">
-        <v>0.07535661716486025</v>
-      </c>
-    </row>
-    <row r="79" spans="1:5">
+        <v>-0.06343631891604132</v>
+      </c>
+      <c r="F78">
+        <v>-0.05247668104809388</v>
+      </c>
+      <c r="G78">
+        <v>-0.01033084178963149</v>
+      </c>
+      <c r="H78">
+        <v>0.0868020208913847</v>
+      </c>
+      <c r="I78">
+        <v>-0.02591279603424637</v>
+      </c>
+    </row>
+    <row r="79" spans="1:9">
       <c r="A79" s="1" t="s">
-        <v>81</v>
+        <v>85</v>
       </c>
       <c r="B79">
-        <v>0.1019328818032069</v>
+        <v>0.04618557490762879</v>
       </c>
       <c r="C79">
-        <v>0.1979907183910025</v>
+        <v>0.2037088744724929</v>
       </c>
       <c r="D79">
-        <v>-0.3809586159119986</v>
+        <v>0.1301975118510147</v>
       </c>
       <c r="E79">
-        <v>0.8047248079863841</v>
-      </c>
-    </row>
-    <row r="80" spans="1:5">
+        <v>0.1019993411417894</v>
+      </c>
+      <c r="F79">
+        <v>-0.785061301324964</v>
+      </c>
+      <c r="G79">
+        <v>0.22531150827599</v>
+      </c>
+      <c r="H79">
+        <v>-0.3915908940187515</v>
+      </c>
+      <c r="I79">
+        <v>-0.1255442338043583</v>
+      </c>
+    </row>
+    <row r="80" spans="1:9">
       <c r="A80" s="1" t="s">
-        <v>82</v>
+        <v>86</v>
       </c>
       <c r="B80">
-        <v>0.002461343235715487</v>
+        <v>0.007696837109005247</v>
       </c>
       <c r="C80">
-        <v>0.0441396431085057</v>
+        <v>0.04451416422202137</v>
       </c>
       <c r="D80">
-        <v>0.0496493776832156</v>
+        <v>-0.03658390549702869</v>
       </c>
       <c r="E80">
-        <v>0.01050824659406783</v>
-      </c>
-    </row>
-    <row r="81" spans="1:5">
+        <v>-0.05081771184919728</v>
+      </c>
+      <c r="F80">
+        <v>-0.003275365838414006</v>
+      </c>
+      <c r="G80">
+        <v>0.01766967904171199</v>
+      </c>
+      <c r="H80">
+        <v>0.04495995513929098</v>
+      </c>
+      <c r="I80">
+        <v>-0.07729776414332422</v>
+      </c>
+    </row>
+    <row r="81" spans="1:9">
       <c r="A81" s="1" t="s">
-        <v>83</v>
+        <v>87</v>
       </c>
       <c r="B81">
-        <v>0.1105218574387515</v>
+        <v>0.04098538947220343</v>
       </c>
       <c r="C81">
-        <v>0.1372731205527884</v>
+        <v>0.1594573220919866</v>
       </c>
       <c r="D81">
-        <v>-0.08295538375139759</v>
+        <v>0.0803699117321314</v>
       </c>
       <c r="E81">
-        <v>0.01008788994904686</v>
-      </c>
-    </row>
-    <row r="82" spans="1:5">
+        <v>0.05821668408352747</v>
+      </c>
+      <c r="F81">
+        <v>-0.05528651734641966</v>
+      </c>
+      <c r="G81">
+        <v>-0.0312840832964321</v>
+      </c>
+      <c r="H81">
+        <v>0.09054845973888515</v>
+      </c>
+      <c r="I81">
+        <v>0.02209956637925475</v>
+      </c>
+    </row>
+    <row r="82" spans="1:9">
       <c r="A82" s="1" t="s">
-        <v>84</v>
+        <v>88</v>
       </c>
       <c r="B82">
-        <v>0.2300632746549915</v>
+        <v>0.08743880242254262</v>
       </c>
       <c r="C82">
-        <v>0.298624356707806</v>
+        <v>0.3007290680775693</v>
       </c>
       <c r="D82">
-        <v>-0.1540369747104838</v>
+        <v>0.2383854798127464</v>
       </c>
       <c r="E82">
-        <v>-0.2269169836722502</v>
-      </c>
-    </row>
-    <row r="83" spans="1:5">
+        <v>0.08316181247801976</v>
+      </c>
+      <c r="F82">
+        <v>0.1281315459436645</v>
+      </c>
+      <c r="G82">
+        <v>-0.06486879785367558</v>
+      </c>
+      <c r="H82">
+        <v>0.1507205829636133</v>
+      </c>
+      <c r="I82">
+        <v>0.04237070160413643</v>
+      </c>
+    </row>
+    <row r="83" spans="1:9">
       <c r="A83" s="1" t="s">
-        <v>85</v>
+        <v>89</v>
       </c>
       <c r="B83">
-        <v>-0.01118653810261188</v>
+        <v>-0.01039329660000707</v>
       </c>
       <c r="C83">
-        <v>0.05260297918539338</v>
+        <v>0.02116559876547446</v>
       </c>
       <c r="D83">
-        <v>0.001881643966791708</v>
+        <v>-0.02253027881687186</v>
       </c>
       <c r="E83">
-        <v>0.03628304969094032</v>
-      </c>
-    </row>
-    <row r="84" spans="1:5">
+        <v>0.0910052831009695</v>
+      </c>
+      <c r="F83">
+        <v>-0.06317419268985765</v>
+      </c>
+      <c r="G83">
+        <v>-0.002354691384949983</v>
+      </c>
+      <c r="H83">
+        <v>0.407089192658102</v>
+      </c>
+      <c r="I83">
+        <v>-0.8402253765238239</v>
+      </c>
+    </row>
+    <row r="84" spans="1:9">
       <c r="A84" s="1" t="s">
-        <v>86</v>
+        <v>90</v>
       </c>
       <c r="B84">
-        <v>3.842702622089615e-05</v>
+        <v>-0.003499766914647181</v>
       </c>
       <c r="C84">
-        <v>-0.001618376572121065</v>
+        <v>0.01852977699305735</v>
       </c>
       <c r="D84">
-        <v>0.0005186967735363088</v>
+        <v>-0.04144360379373567</v>
       </c>
       <c r="E84">
-        <v>-0.00280952340211309</v>
-      </c>
-    </row>
-    <row r="85" spans="1:5">
+        <v>-0.005214870347763419</v>
+      </c>
+      <c r="F84">
+        <v>-0.03200352543737156</v>
+      </c>
+      <c r="G84">
+        <v>-0.02689396609950815</v>
+      </c>
+      <c r="H84">
+        <v>0.03905479756511062</v>
+      </c>
+      <c r="I84">
+        <v>0.07056818061633348</v>
+      </c>
+    </row>
+    <row r="85" spans="1:9">
       <c r="A85" s="1" t="s">
-        <v>87</v>
+        <v>91</v>
       </c>
       <c r="B85">
-        <v>0.1360297029693173</v>
+        <v>0.05712077491415954</v>
       </c>
       <c r="C85">
-        <v>0.1460332125015751</v>
+        <v>0.1755939609244034</v>
       </c>
       <c r="D85">
-        <v>-0.06694484882968008</v>
+        <v>0.1115558917220824</v>
       </c>
       <c r="E85">
-        <v>0.02367324602779356</v>
-      </c>
-    </row>
-    <row r="86" spans="1:5">
+        <v>0.01251619822693881</v>
+      </c>
+      <c r="F85">
+        <v>-0.06587653761094223</v>
+      </c>
+      <c r="G85">
+        <v>-0.03345990349134165</v>
+      </c>
+      <c r="H85">
+        <v>0.001337441500919129</v>
+      </c>
+      <c r="I85">
+        <v>0.01387075753700466</v>
+      </c>
+    </row>
+    <row r="86" spans="1:9">
       <c r="A86" s="1" t="s">
-        <v>88</v>
+        <v>92</v>
       </c>
       <c r="B86">
-        <v>0.01951063375787125</v>
+        <v>0.01561751849140289</v>
       </c>
       <c r="C86">
-        <v>0.01124620280596711</v>
+        <v>0.04037311963166244</v>
       </c>
       <c r="D86">
-        <v>0.09310949711227713</v>
+        <v>-0.1082990652069847</v>
       </c>
       <c r="E86">
-        <v>0.04264338870324848</v>
-      </c>
-    </row>
-    <row r="87" spans="1:5">
+        <v>0.01630327241941642</v>
+      </c>
+      <c r="F86">
+        <v>-0.01832981422460222</v>
+      </c>
+      <c r="G86">
+        <v>0.01699385252549267</v>
+      </c>
+      <c r="H86">
+        <v>-0.01533523314461639</v>
+      </c>
+      <c r="I86">
+        <v>0.0281238392995769</v>
+      </c>
+    </row>
+    <row r="87" spans="1:9">
       <c r="A87" s="1" t="s">
-        <v>89</v>
+        <v>93</v>
       </c>
       <c r="B87">
-        <v>0.02014145461001337</v>
+        <v>0.01267314460724182</v>
       </c>
       <c r="C87">
-        <v>0.03194568907004348</v>
+        <v>0.06663239418931703</v>
       </c>
       <c r="D87">
-        <v>0.124583589463647</v>
+        <v>-0.1372884480016662</v>
       </c>
       <c r="E87">
-        <v>0.080913622792849</v>
-      </c>
-    </row>
-    <row r="88" spans="1:5">
+        <v>-0.02492667759676678</v>
+      </c>
+      <c r="F87">
+        <v>-0.05048076133715212</v>
+      </c>
+      <c r="G87">
+        <v>-0.01407683273994323</v>
+      </c>
+      <c r="H87">
+        <v>0.08064006961150237</v>
+      </c>
+      <c r="I87">
+        <v>0.01134251697886829</v>
+      </c>
+    </row>
+    <row r="88" spans="1:9">
       <c r="A88" s="1" t="s">
-        <v>90</v>
+        <v>94</v>
       </c>
       <c r="B88">
-        <v>0.05020944071097039</v>
+        <v>0.0356611906574992</v>
       </c>
       <c r="C88">
-        <v>0.04690622920632723</v>
+        <v>0.07026532375201618</v>
       </c>
       <c r="D88">
-        <v>0.00817716410606705</v>
+        <v>-0.01271469351701627</v>
       </c>
       <c r="E88">
-        <v>0.02560976186920647</v>
-      </c>
-    </row>
-    <row r="89" spans="1:5">
+        <v>-0.02583203119666537</v>
+      </c>
+      <c r="F88">
+        <v>-0.01920181867578199</v>
+      </c>
+      <c r="G88">
+        <v>0.02356784780694237</v>
+      </c>
+      <c r="H88">
+        <v>0.0008280780108846026</v>
+      </c>
+      <c r="I88">
+        <v>0.02607708585238905</v>
+      </c>
+    </row>
+    <row r="89" spans="1:9">
       <c r="A89" s="1" t="s">
-        <v>91</v>
+        <v>95</v>
       </c>
       <c r="B89">
-        <v>0.3328359268165606</v>
+        <v>0.3984286993092842</v>
       </c>
       <c r="C89">
-        <v>-0.3114442666435046</v>
+        <v>-0.1669335762958014</v>
       </c>
       <c r="D89">
-        <v>0.005988677903305154</v>
+        <v>-0.04277310062398221</v>
       </c>
       <c r="E89">
-        <v>0.09838338557986416</v>
-      </c>
-    </row>
-    <row r="90" spans="1:5">
+        <v>0.05279984592039237</v>
+      </c>
+      <c r="F89">
+        <v>-0.06548923637478025</v>
+      </c>
+      <c r="G89">
+        <v>0.03088230252951362</v>
+      </c>
+      <c r="H89">
+        <v>0.1620995376796905</v>
+      </c>
+      <c r="I89">
+        <v>-0.0349081881127161</v>
+      </c>
+    </row>
+    <row r="90" spans="1:9">
       <c r="A90" s="1" t="s">
-        <v>92</v>
+        <v>96</v>
       </c>
       <c r="B90">
-        <v>0.2654920118578392</v>
+        <v>0.3218090677490113</v>
       </c>
       <c r="C90">
-        <v>-0.2265375499140284</v>
+        <v>-0.1084507004067264</v>
       </c>
       <c r="D90">
-        <v>0.05738642972328275</v>
+        <v>-0.03455249819685181</v>
       </c>
       <c r="E90">
-        <v>0.002094128655240331</v>
-      </c>
-    </row>
-    <row r="91" spans="1:5">
+        <v>0.001961654906796458</v>
+      </c>
+      <c r="F90">
+        <v>0.0052509186695672</v>
+      </c>
+      <c r="G90">
+        <v>-0.05466937452012439</v>
+      </c>
+      <c r="H90">
+        <v>0.03013987150176694</v>
+      </c>
+      <c r="I90">
+        <v>-0.007313430402660268</v>
+      </c>
+    </row>
+    <row r="91" spans="1:9">
       <c r="A91" s="1" t="s">
-        <v>93</v>
+        <v>97</v>
       </c>
       <c r="B91">
-        <v>0.1455441064815142</v>
+        <v>0.06890802069393244</v>
       </c>
       <c r="C91">
-        <v>0.1919866607299122</v>
+        <v>0.2010521949324925</v>
       </c>
       <c r="D91">
-        <v>-0.1085781795356697</v>
+        <v>0.1130504886720887</v>
       </c>
       <c r="E91">
-        <v>0.03838883266776527</v>
-      </c>
-    </row>
-    <row r="92" spans="1:5">
+        <v>0.07363159682948715</v>
+      </c>
+      <c r="F91">
+        <v>-0.05507154802949574</v>
+      </c>
+      <c r="G91">
+        <v>-0.01263394051178418</v>
+      </c>
+      <c r="H91">
+        <v>0.00386154685977843</v>
+      </c>
+      <c r="I91">
+        <v>-0.02321758037610719</v>
+      </c>
+    </row>
+    <row r="92" spans="1:9">
       <c r="A92" s="1" t="s">
-        <v>94</v>
+        <v>98</v>
       </c>
       <c r="B92">
-        <v>0.2511666216215906</v>
+        <v>0.333557681965229</v>
       </c>
       <c r="C92">
-        <v>-0.2540862481855919</v>
+        <v>-0.1499828866891103</v>
       </c>
       <c r="D92">
-        <v>-0.05512566916781847</v>
+        <v>-0.01622715571898575</v>
       </c>
       <c r="E92">
-        <v>0.02289798167789516</v>
-      </c>
-    </row>
-    <row r="93" spans="1:5">
+        <v>0.07128395350326357</v>
+      </c>
+      <c r="F92">
+        <v>-0.04112504271528959</v>
+      </c>
+      <c r="G92">
+        <v>-0.0166732143024273</v>
+      </c>
+      <c r="H92">
+        <v>-0.008726771843344206</v>
+      </c>
+      <c r="I92">
+        <v>0.143406617419646</v>
+      </c>
+    </row>
+    <row r="93" spans="1:9">
       <c r="A93" s="1" t="s">
-        <v>95</v>
+        <v>99</v>
       </c>
       <c r="B93">
-        <v>0.2910550415124079</v>
+        <v>0.3301825152275635</v>
       </c>
       <c r="C93">
-        <v>-0.2394968265716295</v>
+        <v>-0.1218173502081166</v>
       </c>
       <c r="D93">
-        <v>0.001022792333159302</v>
+        <v>0.01896056277012803</v>
       </c>
       <c r="E93">
-        <v>0.01007910031569575</v>
-      </c>
-    </row>
-    <row r="94" spans="1:5">
+        <v>-0.01769983902185757</v>
+      </c>
+      <c r="F93">
+        <v>-0.01187048431721208</v>
+      </c>
+      <c r="G93">
+        <v>0.00120638915405108</v>
+      </c>
+      <c r="H93">
+        <v>-0.03681210676847463</v>
+      </c>
+      <c r="I93">
+        <v>0.02423485073356526</v>
+      </c>
+    </row>
+    <row r="94" spans="1:9">
       <c r="A94" s="1" t="s">
-        <v>96</v>
+        <v>100</v>
       </c>
       <c r="B94">
-        <v>0.2680201539638458</v>
+        <v>0.1234220366565783</v>
       </c>
       <c r="C94">
-        <v>0.2740234510918791</v>
+        <v>0.3268044988963715</v>
       </c>
       <c r="D94">
-        <v>-0.2367032039816107</v>
+        <v>0.3520583984213121</v>
       </c>
       <c r="E94">
-        <v>-0.2920139288453769</v>
-      </c>
-    </row>
-    <row r="95" spans="1:5">
+        <v>0.07487053211106526</v>
+      </c>
+      <c r="F94">
+        <v>0.129558384501281</v>
+      </c>
+      <c r="G94">
+        <v>-0.298394751514794</v>
+      </c>
+      <c r="H94">
+        <v>0.09193259370813778</v>
+      </c>
+      <c r="I94">
+        <v>0.05580522500093266</v>
+      </c>
+    </row>
+    <row r="95" spans="1:9">
       <c r="A95" s="1" t="s">
-        <v>97</v>
+        <v>101</v>
       </c>
       <c r="B95">
-        <v>0.006940274140296519</v>
+        <v>0.01562431548109008</v>
       </c>
       <c r="C95">
-        <v>0.03880581864190683</v>
+        <v>0.06583721538002932</v>
       </c>
       <c r="D95">
-        <v>0.0005868720646926317</v>
+        <v>-0.1048142945283996</v>
       </c>
       <c r="E95">
-        <v>0.02092855951295853</v>
-      </c>
-    </row>
-    <row r="96" spans="1:5">
+        <v>0.136613630510053</v>
+      </c>
+      <c r="F95">
+        <v>0.03698213027374436</v>
+      </c>
+      <c r="G95">
+        <v>0.2243569390458118</v>
+      </c>
+      <c r="H95">
+        <v>0.1744073768091477</v>
+      </c>
+      <c r="I95">
+        <v>0.1977476289598405</v>
+      </c>
+    </row>
+    <row r="96" spans="1:9">
       <c r="A96" s="1" t="s">
-        <v>98</v>
+        <v>102</v>
       </c>
       <c r="B96">
         <v>0</v>
@@ -2326,44 +3478,80 @@
       <c r="E96">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="1:5">
+      <c r="F96">
+        <v>0</v>
+      </c>
+      <c r="G96">
+        <v>0</v>
+      </c>
+      <c r="H96">
+        <v>0</v>
+      </c>
+      <c r="I96">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="1:9">
       <c r="A97" s="1" t="s">
-        <v>99</v>
+        <v>103</v>
       </c>
       <c r="B97">
-        <v>0</v>
+        <v>0.001964791087249838</v>
       </c>
       <c r="C97">
-        <v>0</v>
+        <v>0.001069507506918818</v>
       </c>
       <c r="D97">
-        <v>0</v>
+        <v>0.0002756174109535997</v>
       </c>
       <c r="E97">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="98" spans="1:5">
+        <v>-0.003498209300538902</v>
+      </c>
+      <c r="F97">
+        <v>-0.0004146656167537498</v>
+      </c>
+      <c r="G97">
+        <v>0.0005864173791337841</v>
+      </c>
+      <c r="H97">
+        <v>0.001615427340108963</v>
+      </c>
+      <c r="I97">
+        <v>0.006856990753501675</v>
+      </c>
+    </row>
+    <row r="98" spans="1:9">
       <c r="A98" s="1" t="s">
-        <v>100</v>
+        <v>104</v>
       </c>
       <c r="B98">
-        <v>0.1530425647665718</v>
+        <v>0.1370994228071596</v>
       </c>
       <c r="C98">
-        <v>0.09664858334537592</v>
+        <v>0.1632447985927732</v>
       </c>
       <c r="D98">
-        <v>0.1650570872514744</v>
+        <v>-0.0456066104505568</v>
       </c>
       <c r="E98">
-        <v>-0.108258773836786</v>
-      </c>
-    </row>
-    <row r="99" spans="1:5">
+        <v>-0.1901187428190055</v>
+      </c>
+      <c r="F98">
+        <v>0.235709842281537</v>
+      </c>
+      <c r="G98">
+        <v>0.1824747906783456</v>
+      </c>
+      <c r="H98">
+        <v>-0.2463300139652103</v>
+      </c>
+      <c r="I98">
+        <v>-0.1757928716339452</v>
+      </c>
+    </row>
+    <row r="99" spans="1:9">
       <c r="A99" s="1" t="s">
-        <v>101</v>
+        <v>105</v>
       </c>
       <c r="B99">
         <v>0</v>
@@ -2377,10 +3565,22 @@
       <c r="E99">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="1:5">
+      <c r="F99">
+        <v>0</v>
+      </c>
+      <c r="G99">
+        <v>0</v>
+      </c>
+      <c r="H99">
+        <v>0</v>
+      </c>
+      <c r="I99">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="1:9">
       <c r="A100" s="1" t="s">
-        <v>102</v>
+        <v>106</v>
       </c>
       <c r="B100">
         <v>0</v>
@@ -2394,44 +3594,80 @@
       <c r="E100">
         <v>0</v>
       </c>
-    </row>
-    <row r="101" spans="1:5">
+      <c r="F100">
+        <v>0</v>
+      </c>
+      <c r="G100">
+        <v>0</v>
+      </c>
+      <c r="H100">
+        <v>0</v>
+      </c>
+      <c r="I100">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="101" spans="1:9">
       <c r="A101" s="1" t="s">
-        <v>103</v>
+        <v>107</v>
       </c>
       <c r="B101">
-        <v>0.002335974451541668</v>
+        <v>0.003159411669414325</v>
       </c>
       <c r="C101">
-        <v>0.02155985726029713</v>
+        <v>0.0399391836460022</v>
       </c>
       <c r="D101">
-        <v>0.07595024306961896</v>
+        <v>-0.09049967115117935</v>
       </c>
       <c r="E101">
-        <v>0.03988464385900983</v>
-      </c>
-    </row>
-    <row r="102" spans="1:5">
+        <v>-0.06941958105283157</v>
+      </c>
+      <c r="F101">
+        <v>-0.03213245421933559</v>
+      </c>
+      <c r="G101">
+        <v>0.09473826951907795</v>
+      </c>
+      <c r="H101">
+        <v>0.1383574289390394</v>
+      </c>
+      <c r="I101">
+        <v>0.03748540385055573</v>
+      </c>
+    </row>
+    <row r="102" spans="1:9">
       <c r="A102" s="1" t="s">
-        <v>104</v>
+        <v>108</v>
       </c>
       <c r="B102">
-        <v>0.09814331457384382</v>
+        <v>0.02573837994616855</v>
       </c>
       <c r="C102">
-        <v>0.1606883737052517</v>
+        <v>0.1402612700343745</v>
       </c>
       <c r="D102">
-        <v>-0.04992708475858804</v>
+        <v>0.105275850750126</v>
       </c>
       <c r="E102">
-        <v>-0.1021701085940622</v>
-      </c>
-    </row>
-    <row r="103" spans="1:5">
+        <v>0.04950836818204872</v>
+      </c>
+      <c r="F102">
+        <v>0.08133529753397642</v>
+      </c>
+      <c r="G102">
+        <v>0.006865298517507504</v>
+      </c>
+      <c r="H102">
+        <v>0.04048209452564593</v>
+      </c>
+      <c r="I102">
+        <v>-0.003196763985953921</v>
+      </c>
+    </row>
+    <row r="103" spans="1:9">
       <c r="A103" s="1" t="s">
-        <v>105</v>
+        <v>109</v>
       </c>
       <c r="B103">
         <v>0</v>
@@ -2445,10 +3681,22 @@
       <c r="E103">
         <v>0</v>
       </c>
-    </row>
-    <row r="104" spans="1:5">
+      <c r="F103">
+        <v>0</v>
+      </c>
+      <c r="G103">
+        <v>0</v>
+      </c>
+      <c r="H103">
+        <v>0</v>
+      </c>
+      <c r="I103">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="104" spans="1:9">
       <c r="A104" s="1" t="s">
-        <v>106</v>
+        <v>110</v>
       </c>
       <c r="B104">
         <v>0</v>
@@ -2460,6 +3708,18 @@
         <v>0</v>
       </c>
       <c r="E104">
+        <v>0</v>
+      </c>
+      <c r="F104">
+        <v>0</v>
+      </c>
+      <c r="G104">
+        <v>0</v>
+      </c>
+      <c r="H104">
+        <v>0</v>
+      </c>
+      <c r="I104">
         <v>0</v>
       </c>
     </row>
